--- a/DocumentAndTests/SpaceInvaders.xlsx
+++ b/DocumentAndTests/SpaceInvaders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saghe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saghe\Desktop\GestureBasedProject\DocumentAndTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BBDD2F-9937-4EE1-9DA0-6DD43C3723C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9920B7C-89C7-403E-8937-DA33DC252361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27795" yWindow="1740" windowWidth="26925" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product No 1 or Sprint No 1" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>Purpose:</t>
   </si>
@@ -340,9 +340,6 @@
     <t>The obstacle is damaged by the bullet</t>
   </si>
   <si>
-    <t>When the olayer shoots a bullet and hits the obstacle it should destroy parts of the obstacle</t>
-  </si>
-  <si>
     <t>Aliens move side to side and down</t>
   </si>
   <si>
@@ -350,6 +347,21 @@
   </si>
   <si>
     <t>The aliens move side to side while slowly getting closer to the player.</t>
+  </si>
+  <si>
+    <t>When the player shoots a bullet and hits the obstacle it should destroy parts of the obstacle</t>
+  </si>
+  <si>
+    <t>Saucer</t>
+  </si>
+  <si>
+    <t>When the game starts the red saucer flies at the top of the screen and is worth 100 points</t>
+  </si>
+  <si>
+    <t>The saucer is visible and when it is shot it is worth 100 points</t>
+  </si>
+  <si>
+    <t>TC.019</t>
   </si>
 </sst>
 </file>
@@ -932,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1501,7 +1513,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>33</v>
@@ -1521,13 +1533,13 @@
         <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>14</v>
@@ -1589,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>100</v>
@@ -1603,7 +1615,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -1614,28 +1626,62 @@
         <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1660,18 +1706,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1892,18 +1938,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
